--- a/assets/bank.xlsx
+++ b/assets/bank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MINE\RlProjects\Quran Tester\Afif\quran_tester\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DA5307-9D2E-480E-AE72-8CE30E7540CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195B103B-B7C3-422D-9767-45097FE44CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="9">
   <si>
     <t>2,26</t>
   </si>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4428899A-0DFE-BA40-B928-9268A6529329}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,6 +436,847 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="K13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" t="s">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
+      <c r="M19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" t="s">
+        <v>7</v>
+      </c>
+      <c r="M21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>6</v>
+      </c>
+      <c r="L22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>7</v>
+      </c>
+      <c r="M24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" t="s">
+        <v>7</v>
+      </c>
+      <c r="M25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" t="s">
+        <v>7</v>
+      </c>
+      <c r="M26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>6</v>
+      </c>
+      <c r="L28" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" t="s">
+        <v>7</v>
+      </c>
+      <c r="M29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
